--- a/SignalAdvisor/UI.xlsx
+++ b/SignalAdvisor/UI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\Rollover\SignalAdvisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF4F2620-33AD-46FF-BE03-1333CC36B5A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1EEDF6-8380-4121-B1A9-AFE8B0F15A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-54135" yWindow="8415" windowWidth="25470" windowHeight="15420" xr2:uid="{6968191E-5FEC-4565-86AB-E4455F586025}"/>
   </bookViews>

--- a/SignalAdvisor/UI.xlsx
+++ b/SignalAdvisor/UI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\Rollover\SignalAdvisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1EEDF6-8380-4121-B1A9-AFE8B0F15A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9414DA1-AAE4-46D3-BA5A-F55795D45F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-54135" yWindow="8415" windowWidth="25470" windowHeight="15420" xr2:uid="{6968191E-5FEC-4565-86AB-E4455F586025}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15870" xr2:uid="{6968191E-5FEC-4565-86AB-E4455F586025}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,39 +36,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>Open positions:</t>
   </si>
   <si>
-    <t xml:space="preserve"> (12 + 12)</t>
-  </si>
-  <si>
     <t>Active orders:</t>
   </si>
   <si>
-    <t>(3 + 4)</t>
-  </si>
-  <si>
     <t>Confirm Signal Reception.</t>
   </si>
   <si>
-    <t>16:55:00 GOOG InsideUpDow</t>
-  </si>
-  <si>
-    <t>16:55:00 GOOG EngulfingBar</t>
-  </si>
-  <si>
-    <t>17:10:00 NVDA InsideUpDow</t>
-  </si>
-  <si>
-    <t>15:55:15 AMZN InsideUpDown</t>
-  </si>
-  <si>
-    <t>15:55:15 V InsideUpDown</t>
-  </si>
-  <si>
     <t>Confirm Signal Reception</t>
+  </si>
+  <si>
+    <t>Last Check (Server Time):</t>
+  </si>
+  <si>
+    <t>No check</t>
+  </si>
+  <si>
+    <t>17:10:00 Position NVDA InsideUpDow</t>
+  </si>
+  <si>
+    <t>16:55:00 Position GOOG InsideUpDow</t>
+  </si>
+  <si>
+    <t>16:55:00 Position GOOG EngulfingBar</t>
+  </si>
+  <si>
+    <t>15:55:15 Position AMZN InsideUpDown</t>
+  </si>
+  <si>
+    <t>15:55:15 Position V InsideUpDown</t>
+  </si>
+  <si>
+    <t>15:50:15 Order AVGO InsideUpDown</t>
+  </si>
+  <si>
+    <t>Sound Enabled:</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -100,11 +109,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Aptos"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -120,6 +124,13 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -149,12 +160,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -162,6 +167,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -178,26 +189,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="20" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="20" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -224,15 +252,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -279,7 +307,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1752759</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>2641</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1733231" cy="937693"/>
@@ -668,355 +696,552 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF231CE7-213B-436D-81C6-64AEDEAA00D4}">
-  <dimension ref="B2:X13"/>
+  <dimension ref="B2:AF16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W26" sqref="W26"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" customWidth="1"/>
     <col min="3" max="3" width="3.28515625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="4.140625" customWidth="1"/>
-    <col min="7" max="7" width="4.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="4" customWidth="1"/>
-    <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="3.7109375" customWidth="1"/>
-    <col min="12" max="12" width="27.28515625" customWidth="1"/>
-    <col min="13" max="13" width="5.28515625" customWidth="1"/>
-    <col min="23" max="23" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="4" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" customWidth="1"/>
+    <col min="11" max="11" width="3.28515625" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1"/>
+    <col min="13" max="13" width="4.140625" customWidth="1"/>
+    <col min="14" max="15" width="5.5703125" customWidth="1"/>
+    <col min="16" max="16" width="1.7109375" customWidth="1"/>
+    <col min="17" max="17" width="3.85546875" customWidth="1"/>
+    <col min="18" max="18" width="7.140625" customWidth="1"/>
+    <col min="20" max="20" width="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" customWidth="1"/>
+    <col min="24" max="24" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.85546875" customWidth="1"/>
+    <col min="27" max="27" width="2.7109375" customWidth="1"/>
+    <col min="28" max="28" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.28515625" customWidth="1"/>
+    <col min="31" max="31" width="3.85546875" customWidth="1"/>
+    <col min="32" max="32" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="2:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="6"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-    </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
+    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+    </row>
+    <row r="3" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+    </row>
+    <row r="4" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="20"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="18"/>
+    </row>
+    <row r="5" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B5" s="20"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E5" s="12">
         <v>24</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
+      <c r="G5" s="12">
+        <v>7</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="2">
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="1"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="T5" s="17">
+        <v>24</v>
+      </c>
+      <c r="U5" s="8"/>
+      <c r="V5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="W5" s="17">
         <v>7</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="X5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4" s="1"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="10">
-        <v>24</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="U4" s="11">
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="18"/>
+    </row>
+    <row r="6" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B6" s="21"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18"/>
+    </row>
+    <row r="7" spans="2:32" ht="21" x14ac:dyDescent="0.35">
+      <c r="B7" s="4"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+    </row>
+    <row r="8" spans="2:32" ht="21" x14ac:dyDescent="0.35">
+      <c r="B8" s="20"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="W4" s="3" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18"/>
+    </row>
+    <row r="9" spans="2:32" ht="21" x14ac:dyDescent="0.35">
+      <c r="B9" s="20"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="18"/>
+    </row>
+    <row r="10" spans="2:32" ht="21" x14ac:dyDescent="0.35">
+      <c r="B10" s="20"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="18"/>
+    </row>
+    <row r="11" spans="2:32" ht="21" x14ac:dyDescent="0.35">
+      <c r="B11" s="20"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="10"/>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-    </row>
-    <row r="6" spans="2:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="B6" s="7"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="1"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="10"/>
-    </row>
-    <row r="7" spans="2:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="B7" s="7"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="1"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="10"/>
-    </row>
-    <row r="8" spans="2:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="B8" s="7"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="1"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="10"/>
-    </row>
-    <row r="9" spans="2:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="B9" s="7"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="1"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="10"/>
-    </row>
-    <row r="10" spans="2:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="B10" s="7"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="1"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="10"/>
-    </row>
-    <row r="11" spans="2:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="B11" s="7"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
       <c r="X11" s="10"/>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="18"/>
+    </row>
+    <row r="12" spans="2:32" ht="21" x14ac:dyDescent="0.35">
+      <c r="B12" s="20"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
       <c r="X12" s="10"/>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="18"/>
+    </row>
+    <row r="13" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B13" s="20"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="18"/>
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="18"/>
+      <c r="AE13" s="18"/>
+      <c r="AF13" s="18"/>
+    </row>
+    <row r="14" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B14" s="20"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="18"/>
+      <c r="AD14" s="18"/>
+      <c r="AE14" s="18"/>
+      <c r="AF14" s="18"/>
+    </row>
+    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B15" s="20"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="18"/>
+      <c r="AD15" s="18"/>
+      <c r="AE15" s="18"/>
+      <c r="AF15" s="18"/>
+    </row>
+    <row r="16" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B16" s="20"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="18"/>
+      <c r="AD16" s="18"/>
+      <c r="AE16" s="18"/>
+      <c r="AF16" s="18"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="AB5:AE5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/SignalAdvisor/UI.xlsx
+++ b/SignalAdvisor/UI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\Rollover\SignalAdvisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9414DA1-AAE4-46D3-BA5A-F55795D45F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2F3FF5-E3EA-4751-B4E3-1DA097F8571F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15870" xr2:uid="{6968191E-5FEC-4565-86AB-E4455F586025}"/>
+    <workbookView xWindow="-54135" yWindow="8415" windowWidth="25470" windowHeight="15420" xr2:uid="{6968191E-5FEC-4565-86AB-E4455F586025}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +131,13 @@
       <color theme="1"/>
       <name val="Aptos"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -189,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -226,6 +233,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,7 +707,7 @@
   <dimension ref="B2:AF16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,10 +746,14 @@
       <c r="D2" s="20"/>
       <c r="F2" s="20"/>
       <c r="H2" s="20"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
       <c r="K2" s="20"/>
       <c r="L2" s="20"/>
       <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
+      <c r="O2" s="22">
+        <v>9</v>
+      </c>
       <c r="P2" s="20"/>
     </row>
     <row r="3" spans="2:32" x14ac:dyDescent="0.25">
@@ -1002,7 +1014,7 @@
       <c r="AF9" s="18"/>
     </row>
     <row r="10" spans="2:32" ht="21" x14ac:dyDescent="0.35">
-      <c r="B10" s="20"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="1"/>
       <c r="D10" s="6" t="s">
         <v>9</v>
@@ -1038,7 +1050,9 @@
       <c r="AF10" s="18"/>
     </row>
     <row r="11" spans="2:32" ht="21" x14ac:dyDescent="0.35">
-      <c r="B11" s="20"/>
+      <c r="B11" s="22">
+        <v>3</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="6" t="s">
         <v>10</v>
@@ -1074,7 +1088,7 @@
       <c r="AF11" s="18"/>
     </row>
     <row r="12" spans="2:32" ht="21" x14ac:dyDescent="0.35">
-      <c r="B12" s="20"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="1"/>
       <c r="D12" s="6" t="s">
         <v>11</v>

--- a/SignalAdvisor/UI.xlsx
+++ b/SignalAdvisor/UI.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\Rollover\SignalAdvisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2F3FF5-E3EA-4751-B4E3-1DA097F8571F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3505FC0E-FA34-40AD-BB76-22FDDE5B18AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-54135" yWindow="8415" windowWidth="25470" windowHeight="15420" xr2:uid="{6968191E-5FEC-4565-86AB-E4455F586025}"/>
+    <workbookView xWindow="-54135" yWindow="8415" windowWidth="25470" windowHeight="15420" activeTab="1" xr2:uid="{6968191E-5FEC-4565-86AB-E4455F586025}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="31">
   <si>
     <t>Open positions:</t>
   </si>
@@ -78,13 +79,67 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>NVDA</t>
+  </si>
+  <si>
+    <t>ABBV</t>
+  </si>
+  <si>
+    <t>GOOG</t>
+  </si>
+  <si>
+    <t>AMZN</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>AVGO</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>LONG</t>
+  </si>
+  <si>
+    <t>OppColor</t>
+  </si>
+  <si>
+    <t>Trade</t>
+  </si>
+  <si>
+    <t>SL: 160$</t>
+  </si>
+  <si>
+    <t>TP: 16$</t>
+  </si>
+  <si>
+    <t>Param1:</t>
+  </si>
+  <si>
+    <t>Param2:</t>
+  </si>
+  <si>
+    <t>Param3:</t>
+  </si>
+  <si>
+    <t>Update Symbols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algo: SaRS  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,8 +194,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,8 +266,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -192,11 +280,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -215,11 +319,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -227,15 +328,43 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -378,6 +507,470 @@
               <a:effectLst/>
             </a:rPr>
             <a:t>Flash</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171429</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>228571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3294188F-6531-EA8F-7EAE-806CFE17DC7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6877050" y="1104900"/>
+          <a:ext cx="171429" cy="228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="171429" cy="228571"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{385A44C5-5330-4F6B-B850-7E25B0476302}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8105775" y="1104900"/>
+          <a:ext cx="171429" cy="228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="171429" cy="228571"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91B0A561-1405-4879-9B28-9683946AEFBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8105775" y="1104900"/>
+          <a:ext cx="171429" cy="228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="171429" cy="228571"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6064516C-EE61-49C9-A611-8F2981C54166}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8105775" y="1104900"/>
+          <a:ext cx="171429" cy="228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="171429" cy="228571"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0DDE1BB-82A7-4157-B15D-A0ECDEE82AA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8105775" y="1104900"/>
+          <a:ext cx="171429" cy="228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="171429" cy="228571"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13BF176F-8D6C-4F7F-BC67-073A769D9132}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8105775" y="1104900"/>
+          <a:ext cx="171429" cy="228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{011C25B2-1945-FD1A-EADD-B550EB47316A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2095500" y="2714625"/>
+          <a:ext cx="304800" cy="2238375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1001639</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>12166</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2149627" cy="937693"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC697C3E-F208-6D8F-2D58-1023303A5D47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1573139" y="4622266"/>
+          <a:ext cx="2149627" cy="937693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>History</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C7356E8-C820-C93F-5961-CE9791D53D7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11544300" y="2647950"/>
+          <a:ext cx="1104900" cy="1847850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>20662</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>116941</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3311484" cy="937693"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A10C3843-229F-46BE-9086-017B961BD04D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9650437" y="4346041"/>
+          <a:ext cx="3311484" cy="937693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Algo Config</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -706,8 +1299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF231CE7-213B-436D-81C6-64AEDEAA00D4}">
   <dimension ref="B2:AF16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X27" sqref="X27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,20 +1334,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="H2" s="18"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="22">
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="19">
         <v>9</v>
       </c>
-      <c r="P2" s="20"/>
+      <c r="P2" s="18"/>
     </row>
     <row r="3" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
@@ -774,7 +1367,7 @@
       <c r="P3" s="4"/>
     </row>
     <row r="4" spans="2:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -799,14 +1392,14 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="18"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
     </row>
     <row r="5" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B5" s="20"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="1"/>
       <c r="D5" s="13" t="s">
         <v>0</v>
@@ -828,28 +1421,28 @@
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
       <c r="P5" s="1"/>
       <c r="R5" s="7"/>
-      <c r="S5" s="16" t="s">
+      <c r="S5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="T5" s="17">
+      <c r="T5" s="16">
         <v>24</v>
       </c>
       <c r="U5" s="8"/>
-      <c r="V5" s="16" t="s">
+      <c r="V5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="W5" s="17">
+      <c r="W5" s="16">
         <v>7</v>
       </c>
-      <c r="X5" s="16" t="s">
+      <c r="X5" s="15" t="s">
         <v>4</v>
       </c>
       <c r="Y5" s="8" t="s">
@@ -857,16 +1450,16 @@
       </c>
       <c r="Z5" s="8"/>
       <c r="AA5" s="8"/>
-      <c r="AB5" s="19" t="s">
+      <c r="AB5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="18"/>
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="17"/>
     </row>
     <row r="6" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B6" s="21"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="1"/>
       <c r="D6" s="13"/>
       <c r="E6" s="12"/>
@@ -882,20 +1475,20 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="17"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="16"/>
       <c r="U6" s="8"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="16"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="15"/>
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="8"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="18"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17"/>
     </row>
     <row r="7" spans="2:32" ht="21" x14ac:dyDescent="0.35">
       <c r="B7" s="4"/>
@@ -931,18 +1524,18 @@
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
       <c r="AA7" s="8"/>
-      <c r="AB7" s="17" t="s">
+      <c r="AB7" s="16" t="s">
         <v>12</v>
       </c>
       <c r="AC7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="18"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="17"/>
     </row>
     <row r="8" spans="2:32" ht="21" x14ac:dyDescent="0.35">
-      <c r="B8" s="20"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="1"/>
       <c r="D8" s="5" t="s">
         <v>7</v>
@@ -971,14 +1564,14 @@
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
       <c r="AA8" s="7"/>
-      <c r="AB8" s="18"/>
-      <c r="AC8" s="18"/>
-      <c r="AD8" s="18"/>
-      <c r="AE8" s="18"/>
-      <c r="AF8" s="18"/>
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="17"/>
+      <c r="AD8" s="17"/>
+      <c r="AE8" s="17"/>
+      <c r="AF8" s="17"/>
     </row>
     <row r="9" spans="2:32" ht="21" x14ac:dyDescent="0.35">
-      <c r="B9" s="20"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="1"/>
       <c r="D9" s="5" t="s">
         <v>8</v>
@@ -1007,14 +1600,14 @@
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
       <c r="AA9" s="7"/>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="18"/>
-      <c r="AD9" s="18"/>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="18"/>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="17"/>
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="17"/>
     </row>
     <row r="10" spans="2:32" ht="21" x14ac:dyDescent="0.35">
-      <c r="B10" s="22"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="1"/>
       <c r="D10" s="6" t="s">
         <v>9</v>
@@ -1043,14 +1636,14 @@
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
       <c r="AA10" s="7"/>
-      <c r="AB10" s="18"/>
-      <c r="AC10" s="18"/>
-      <c r="AD10" s="18"/>
-      <c r="AE10" s="18"/>
-      <c r="AF10" s="18"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="17"/>
     </row>
     <row r="11" spans="2:32" ht="21" x14ac:dyDescent="0.35">
-      <c r="B11" s="22">
+      <c r="B11" s="19">
         <v>3</v>
       </c>
       <c r="C11" s="1"/>
@@ -1081,14 +1674,14 @@
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
       <c r="AA11" s="7"/>
-      <c r="AB11" s="18"/>
-      <c r="AC11" s="18"/>
-      <c r="AD11" s="18"/>
-      <c r="AE11" s="18"/>
-      <c r="AF11" s="18"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="17"/>
     </row>
     <row r="12" spans="2:32" ht="21" x14ac:dyDescent="0.35">
-      <c r="B12" s="22"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="1"/>
       <c r="D12" s="6" t="s">
         <v>11</v>
@@ -1117,14 +1710,14 @@
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
       <c r="AA12" s="7"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="18"/>
-      <c r="AF12" s="18"/>
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="17"/>
+      <c r="AE12" s="17"/>
+      <c r="AF12" s="17"/>
     </row>
     <row r="13" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B13" s="20"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="1"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1149,14 +1742,14 @@
       <c r="Y13" s="11"/>
       <c r="Z13" s="11"/>
       <c r="AA13" s="7"/>
-      <c r="AB13" s="18"/>
-      <c r="AC13" s="18"/>
-      <c r="AD13" s="18"/>
-      <c r="AE13" s="18"/>
-      <c r="AF13" s="18"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="17"/>
+      <c r="AF13" s="17"/>
     </row>
     <row r="14" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B14" s="20"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="1"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1181,14 +1774,14 @@
       <c r="Y14" s="11"/>
       <c r="Z14" s="11"/>
       <c r="AA14" s="7"/>
-      <c r="AB14" s="18"/>
-      <c r="AC14" s="18"/>
-      <c r="AD14" s="18"/>
-      <c r="AE14" s="18"/>
-      <c r="AF14" s="18"/>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="17"/>
+      <c r="AE14" s="17"/>
+      <c r="AF14" s="17"/>
     </row>
     <row r="15" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B15" s="20"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="1"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1213,14 +1806,14 @@
       <c r="Y15" s="11"/>
       <c r="Z15" s="11"/>
       <c r="AA15" s="7"/>
-      <c r="AB15" s="18"/>
-      <c r="AC15" s="18"/>
-      <c r="AD15" s="18"/>
-      <c r="AE15" s="18"/>
-      <c r="AF15" s="18"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="17"/>
+      <c r="AF15" s="17"/>
     </row>
     <row r="16" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B16" s="20"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1245,11 +1838,11 @@
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
-      <c r="AB16" s="18"/>
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="18"/>
-      <c r="AE16" s="18"/>
-      <c r="AF16" s="18"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1259,4 +1852,622 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7910DB30-3C07-4745-9656-5B458575372B}">
+  <dimension ref="B2:Y16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.140625" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" customWidth="1"/>
+    <col min="3" max="3" width="3.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="17.5703125" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" customWidth="1"/>
+    <col min="13" max="13" width="2.5703125" customWidth="1"/>
+    <col min="14" max="18" width="14.28515625" customWidth="1"/>
+    <col min="19" max="19" width="5" customWidth="1"/>
+    <col min="20" max="20" width="3.28515625" customWidth="1"/>
+    <col min="21" max="21" width="16.140625" customWidth="1"/>
+    <col min="22" max="22" width="4.140625" customWidth="1"/>
+    <col min="23" max="24" width="5.5703125" customWidth="1"/>
+    <col min="25" max="25" width="1.7109375" customWidth="1"/>
+    <col min="26" max="26" width="3.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="19">
+        <v>9</v>
+      </c>
+      <c r="Y2" s="18"/>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+    </row>
+    <row r="4" spans="2:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="18"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B5" s="18"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
+        <v>24</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="12">
+        <v>7</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="13"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="1"/>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B6" s="18"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+    </row>
+    <row r="7" spans="2:25" ht="21" x14ac:dyDescent="0.35">
+      <c r="B7" s="4"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="27">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="31"/>
+      <c r="N7" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="S7" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="T7" s="2"/>
+      <c r="U7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="V7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+    </row>
+    <row r="8" spans="2:25" ht="21" x14ac:dyDescent="0.35">
+      <c r="B8" s="18"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="27">
+        <v>0.74652777777777801</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="31"/>
+      <c r="N8" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="R8" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="S8" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+    </row>
+    <row r="9" spans="2:25" ht="21" x14ac:dyDescent="0.35">
+      <c r="B9" s="18"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="27">
+        <v>0.78819444444444497</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="31"/>
+      <c r="N9" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="R9" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="S9" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+    </row>
+    <row r="10" spans="2:25" ht="21" x14ac:dyDescent="0.35">
+      <c r="B10" s="19"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="27">
+        <v>0.82986111111111105</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="31"/>
+      <c r="N10" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="S10" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+    </row>
+    <row r="11" spans="2:25" ht="21" x14ac:dyDescent="0.35">
+      <c r="B11" s="19">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="27">
+        <v>0.87152777777777801</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="31"/>
+      <c r="N11" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q11" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="R11" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="S11" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+    </row>
+    <row r="12" spans="2:25" ht="21" x14ac:dyDescent="0.35">
+      <c r="B12" s="19"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="27">
+        <v>0.91319444444444497</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="31"/>
+      <c r="N12" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="P12" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q12" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="R12" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="S12" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B13" s="18"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B14" s="18"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B15" s="18"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B16" s="18"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="U5:X5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/SignalAdvisor/UI.xlsx
+++ b/SignalAdvisor/UI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\Rollover\SignalAdvisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3505FC0E-FA34-40AD-BB76-22FDDE5B18AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AC75F5-5C05-4032-A1DC-FEBA33CF6A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-54135" yWindow="8415" windowWidth="25470" windowHeight="15420" activeTab="1" xr2:uid="{6968191E-5FEC-4565-86AB-E4455F586025}"/>
   </bookViews>
@@ -117,9 +117,6 @@
     <t>TP: 16$</t>
   </si>
   <si>
-    <t>Param1:</t>
-  </si>
-  <si>
     <t>Param2:</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
   </si>
   <si>
     <t xml:space="preserve">Algo: SaRS  </t>
+  </si>
+  <si>
+    <t>Qty: 100</t>
   </si>
 </sst>
 </file>
@@ -139,7 +139,7 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +218,12 @@
     </font>
     <font>
       <sz val="14"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1859,7 +1865,7 @@
   <dimension ref="B2:Y16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2031,7 +2037,7 @@
       <c r="B7" s="4"/>
       <c r="C7" s="1"/>
       <c r="D7" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="24" t="s">
@@ -2053,7 +2059,7 @@
         <v>23</v>
       </c>
       <c r="L7" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M7" s="31"/>
       <c r="N7" s="32" t="s">
@@ -2063,13 +2069,13 @@
         <v>25</v>
       </c>
       <c r="P7" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="32" t="s">
+      <c r="R7" s="32" t="s">
         <v>27</v>
-      </c>
-      <c r="R7" s="32" t="s">
-        <v>28</v>
       </c>
       <c r="S7" s="24" t="s">
         <v>20</v>
@@ -2111,7 +2117,7 @@
         <v>23</v>
       </c>
       <c r="L8" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M8" s="31"/>
       <c r="N8" s="32" t="s">
@@ -2121,13 +2127,13 @@
         <v>25</v>
       </c>
       <c r="P8" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="Q8" s="32" t="s">
+      <c r="R8" s="32" t="s">
         <v>27</v>
-      </c>
-      <c r="R8" s="32" t="s">
-        <v>28</v>
       </c>
       <c r="S8" s="24" t="s">
         <v>20</v>
@@ -2165,7 +2171,7 @@
         <v>23</v>
       </c>
       <c r="L9" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M9" s="31"/>
       <c r="N9" s="32" t="s">
@@ -2175,13 +2181,13 @@
         <v>25</v>
       </c>
       <c r="P9" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="Q9" s="32" t="s">
+      <c r="R9" s="32" t="s">
         <v>27</v>
-      </c>
-      <c r="R9" s="32" t="s">
-        <v>28</v>
       </c>
       <c r="S9" s="24" t="s">
         <v>20</v>
@@ -2219,7 +2225,7 @@
         <v>23</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M10" s="31"/>
       <c r="N10" s="32" t="s">
@@ -2229,13 +2235,13 @@
         <v>25</v>
       </c>
       <c r="P10" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="Q10" s="32" t="s">
+      <c r="R10" s="32" t="s">
         <v>27</v>
-      </c>
-      <c r="R10" s="32" t="s">
-        <v>28</v>
       </c>
       <c r="S10" s="24" t="s">
         <v>20</v>
@@ -2275,7 +2281,7 @@
         <v>23</v>
       </c>
       <c r="L11" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M11" s="31"/>
       <c r="N11" s="32" t="s">
@@ -2285,13 +2291,13 @@
         <v>25</v>
       </c>
       <c r="P11" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="Q11" s="32" t="s">
+      <c r="R11" s="32" t="s">
         <v>27</v>
-      </c>
-      <c r="R11" s="32" t="s">
-        <v>28</v>
       </c>
       <c r="S11" s="24" t="s">
         <v>20</v>
@@ -2329,7 +2335,7 @@
         <v>23</v>
       </c>
       <c r="L12" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M12" s="31"/>
       <c r="N12" s="32" t="s">
@@ -2339,13 +2345,13 @@
         <v>25</v>
       </c>
       <c r="P12" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="Q12" s="32" t="s">
+      <c r="R12" s="32" t="s">
         <v>27</v>
-      </c>
-      <c r="R12" s="32" t="s">
-        <v>28</v>
       </c>
       <c r="S12" s="24" t="s">
         <v>20</v>
@@ -2467,6 +2473,7 @@
   <mergeCells count="1">
     <mergeCell ref="U5:X5"/>
   </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/SignalAdvisor/UI.xlsx
+++ b/SignalAdvisor/UI.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\Rollover\SignalAdvisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AC75F5-5C05-4032-A1DC-FEBA33CF6A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F436CD41-DA13-4D38-B664-0B9193204382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-54135" yWindow="8415" windowWidth="25470" windowHeight="15420" activeTab="1" xr2:uid="{6968191E-5FEC-4565-86AB-E4455F586025}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{6968191E-5FEC-4565-86AB-E4455F586025}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1 (3)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="40">
   <si>
     <t>Open positions:</t>
   </si>
@@ -130,6 +131,33 @@
   </si>
   <si>
     <t>Qty: 100</t>
+  </si>
+  <si>
+    <t>AAPL</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>SMART</t>
+  </si>
+  <si>
+    <t>Trade 2 StdDev</t>
+  </si>
+  <si>
+    <t>10th Bar</t>
+  </si>
+  <si>
+    <t>StdDev</t>
+  </si>
+  <si>
+    <t>Risk: 750$</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>SHORT</t>
   </si>
 </sst>
 </file>
@@ -137,9 +165,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,8 +256,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,6 +312,11 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -302,11 +342,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -337,12 +378,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -352,7 +387,7 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -365,11 +400,24 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1427,12 +1475,12 @@
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
       <c r="P5" s="1"/>
       <c r="R5" s="7"/>
       <c r="S5" s="15" t="s">
@@ -1456,12 +1504,12 @@
       </c>
       <c r="Z5" s="8"/>
       <c r="AA5" s="8"/>
-      <c r="AB5" s="21" t="s">
+      <c r="AB5" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="AC5" s="21"/>
-      <c r="AD5" s="21"/>
-      <c r="AE5" s="21"/>
+      <c r="AC5" s="32"/>
+      <c r="AD5" s="32"/>
+      <c r="AE5" s="32"/>
       <c r="AF5" s="17"/>
     </row>
     <row r="6" spans="2:32" x14ac:dyDescent="0.25">
@@ -1864,8 +1912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7910DB30-3C07-4745-9656-5B458575372B}">
   <dimension ref="B2:Y16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1999,12 +2047,12 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
-      <c r="U5" s="20" t="s">
+      <c r="U5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.25">
@@ -2036,48 +2084,48 @@
     <row r="7" spans="2:25" ht="21" x14ac:dyDescent="0.35">
       <c r="B7" s="4"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="21" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="25">
         <v>0.70486111111111116</v>
       </c>
-      <c r="J7" s="28" t="s">
+      <c r="J7" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="29" t="s">
+      <c r="K7" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="30" t="s">
+      <c r="L7" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="31"/>
-      <c r="N7" s="32" t="s">
+      <c r="M7" s="29"/>
+      <c r="N7" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="32" t="s">
+      <c r="O7" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="P7" s="32" t="s">
+      <c r="P7" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="Q7" s="32" t="s">
+      <c r="Q7" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="R7" s="32" t="s">
+      <c r="R7" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="S7" s="24" t="s">
+      <c r="S7" s="22" t="s">
         <v>20</v>
       </c>
       <c r="T7" s="2"/>
@@ -2094,48 +2142,48 @@
     <row r="8" spans="2:25" ht="21" x14ac:dyDescent="0.35">
       <c r="B8" s="18"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="20" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="12"/>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="25">
         <v>0.74652777777777801</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="29" t="s">
+      <c r="K8" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="30" t="s">
+      <c r="L8" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="M8" s="31"/>
-      <c r="N8" s="32" t="s">
+      <c r="M8" s="29"/>
+      <c r="N8" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="32" t="s">
+      <c r="O8" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="P8" s="32" t="s">
+      <c r="P8" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" s="32" t="s">
+      <c r="Q8" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="R8" s="32" t="s">
+      <c r="R8" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="S8" s="24" t="s">
+      <c r="S8" s="22" t="s">
         <v>20</v>
       </c>
       <c r="T8" s="1"/>
@@ -2148,48 +2196,48 @@
     <row r="9" spans="2:25" ht="21" x14ac:dyDescent="0.35">
       <c r="B9" s="18"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="20" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="12"/>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="25">
         <v>0.78819444444444497</v>
       </c>
-      <c r="J9" s="28" t="s">
+      <c r="J9" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="29" t="s">
+      <c r="K9" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="30" t="s">
+      <c r="L9" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="M9" s="31"/>
-      <c r="N9" s="32" t="s">
+      <c r="M9" s="29"/>
+      <c r="N9" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="O9" s="32" t="s">
+      <c r="O9" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="P9" s="32" t="s">
+      <c r="P9" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="Q9" s="32" t="s">
+      <c r="Q9" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="R9" s="32" t="s">
+      <c r="R9" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="S9" s="24" t="s">
+      <c r="S9" s="22" t="s">
         <v>20</v>
       </c>
       <c r="T9" s="1"/>
@@ -2202,48 +2250,48 @@
     <row r="10" spans="2:25" ht="21" x14ac:dyDescent="0.35">
       <c r="B10" s="19"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="20" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I10" s="25">
         <v>0.82986111111111105</v>
       </c>
-      <c r="J10" s="28" t="s">
+      <c r="J10" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="29" t="s">
+      <c r="K10" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="30" t="s">
+      <c r="L10" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="31"/>
-      <c r="N10" s="32" t="s">
+      <c r="M10" s="29"/>
+      <c r="N10" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="O10" s="32" t="s">
+      <c r="O10" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="P10" s="32" t="s">
+      <c r="P10" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="Q10" s="32" t="s">
+      <c r="Q10" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="R10" s="32" t="s">
+      <c r="R10" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="S10" s="24" t="s">
+      <c r="S10" s="22" t="s">
         <v>20</v>
       </c>
       <c r="T10" s="1"/>
@@ -2258,48 +2306,48 @@
         <v>3</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="27">
+      <c r="I11" s="25">
         <v>0.87152777777777801</v>
       </c>
-      <c r="J11" s="28" t="s">
+      <c r="J11" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="29" t="s">
+      <c r="K11" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="30" t="s">
+      <c r="L11" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="31"/>
-      <c r="N11" s="32" t="s">
+      <c r="M11" s="29"/>
+      <c r="N11" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="O11" s="32" t="s">
+      <c r="O11" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="P11" s="32" t="s">
+      <c r="P11" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="Q11" s="32" t="s">
+      <c r="Q11" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="R11" s="32" t="s">
+      <c r="R11" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="S11" s="24" t="s">
+      <c r="S11" s="22" t="s">
         <v>20</v>
       </c>
       <c r="T11" s="1"/>
@@ -2312,48 +2360,48 @@
     <row r="12" spans="2:25" ht="21" x14ac:dyDescent="0.35">
       <c r="B12" s="19"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="20" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="12"/>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="H12" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="27">
+      <c r="I12" s="25">
         <v>0.91319444444444497</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="29" t="s">
+      <c r="K12" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="30" t="s">
+      <c r="L12" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="M12" s="31"/>
-      <c r="N12" s="32" t="s">
+      <c r="M12" s="29"/>
+      <c r="N12" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="O12" s="32" t="s">
+      <c r="O12" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="P12" s="32" t="s">
+      <c r="P12" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="Q12" s="32" t="s">
+      <c r="Q12" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="R12" s="32" t="s">
+      <c r="R12" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="S12" s="24" t="s">
+      <c r="S12" s="22" t="s">
         <v>20</v>
       </c>
       <c r="T12" s="1"/>
@@ -2477,4 +2525,567 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8050E3-70C6-45F6-B5FF-53FBDA934C54}">
+  <dimension ref="C4:Y18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.140625" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" customWidth="1"/>
+    <col min="3" max="3" width="3.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" customWidth="1"/>
+    <col min="16" max="19" width="14.28515625" customWidth="1"/>
+    <col min="20" max="20" width="3.28515625" customWidth="1"/>
+    <col min="21" max="21" width="16.140625" customWidth="1"/>
+    <col min="22" max="22" width="4.140625" customWidth="1"/>
+    <col min="23" max="24" width="5.5703125" customWidth="1"/>
+    <col min="25" max="25" width="1.7109375" customWidth="1"/>
+    <col min="26" max="26" width="3.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+    </row>
+    <row r="5" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C5" s="1"/>
+      <c r="D5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
+        <v>24</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="12">
+        <v>7</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="12"/>
+      <c r="P5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="1"/>
+    </row>
+    <row r="6" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+    </row>
+    <row r="7" spans="3:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C7" s="1"/>
+      <c r="D7" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="33">
+        <v>265598</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="23">
+        <v>145.66999999999999</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="25">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="M7" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="R7" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="S7" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="T7" s="2"/>
+      <c r="U7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="V7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+    </row>
+    <row r="8" spans="3:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C8" s="1"/>
+      <c r="D8" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="33">
+        <v>4815747</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="23">
+        <v>890.16</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="25">
+        <v>0.74652777777777801</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="S8" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+    </row>
+    <row r="9" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+      <c r="D9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+    </row>
+    <row r="10" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
+      <c r="D10" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+    </row>
+    <row r="11" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+    </row>
+    <row r="12" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+    </row>
+    <row r="13" spans="3:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C13" s="1"/>
+      <c r="D13" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="33">
+        <v>265598</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="23">
+        <v>145.66999999999999</v>
+      </c>
+      <c r="K13" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="25">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="M13" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="P13" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q13" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="R13" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="S13" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+    </row>
+    <row r="14" spans="3:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C14" s="1"/>
+      <c r="D14" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="33">
+        <v>4815747</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="23">
+        <v>890.16</v>
+      </c>
+      <c r="K14" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="25">
+        <v>0.74652777777777801</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="O14" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="P14" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q14" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="R14" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="S14" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+    </row>
+    <row r="15" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+      <c r="D15" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+    </row>
+    <row r="16" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+      <c r="D16" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="U5:X5"/>
+  </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SignalAdvisor/UI.xlsx
+++ b/SignalAdvisor/UI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\Rollover\SignalAdvisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F436CD41-DA13-4D38-B664-0B9193204382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440576B7-A4D9-4FDE-8947-A519A6DBE94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{6968191E-5FEC-4565-86AB-E4455F586025}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="43">
   <si>
     <t>Open positions:</t>
   </si>
@@ -158,6 +158,15 @@
   </si>
   <si>
     <t>SHORT</t>
+  </si>
+  <si>
+    <t>Bias</t>
+  </si>
+  <si>
+    <t>StdDev10</t>
+  </si>
+  <si>
+    <t>Exp. Value</t>
   </si>
 </sst>
 </file>
@@ -264,7 +273,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,6 +326,12 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -347,7 +362,7 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -403,18 +418,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1475,12 +1493,12 @@
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="31" t="s">
+      <c r="L5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
       <c r="P5" s="1"/>
       <c r="R5" s="7"/>
       <c r="S5" s="15" t="s">
@@ -1504,12 +1522,12 @@
       </c>
       <c r="Z5" s="8"/>
       <c r="AA5" s="8"/>
-      <c r="AB5" s="32" t="s">
+      <c r="AB5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="AC5" s="32"/>
-      <c r="AD5" s="32"/>
-      <c r="AE5" s="32"/>
+      <c r="AC5" s="34"/>
+      <c r="AD5" s="34"/>
+      <c r="AE5" s="34"/>
       <c r="AF5" s="17"/>
     </row>
     <row r="6" spans="2:32" x14ac:dyDescent="0.25">
@@ -2047,12 +2065,12 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
-      <c r="U5" s="31" t="s">
+      <c r="U5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.25">
@@ -2529,10 +2547,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8050E3-70C6-45F6-B5FF-53FBDA934C54}">
-  <dimension ref="C4:Y18"/>
+  <dimension ref="C4:AB18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2549,16 +2567,22 @@
     <col min="13" max="13" width="13.28515625" customWidth="1"/>
     <col min="14" max="14" width="17.5703125" customWidth="1"/>
     <col min="15" max="15" width="20.28515625" customWidth="1"/>
-    <col min="16" max="19" width="14.28515625" customWidth="1"/>
-    <col min="20" max="20" width="3.28515625" customWidth="1"/>
-    <col min="21" max="21" width="16.140625" customWidth="1"/>
-    <col min="22" max="22" width="4.140625" customWidth="1"/>
-    <col min="23" max="24" width="5.5703125" customWidth="1"/>
-    <col min="25" max="25" width="1.7109375" customWidth="1"/>
-    <col min="26" max="26" width="3.85546875" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.28515625" customWidth="1"/>
+    <col min="24" max="24" width="16.140625" customWidth="1"/>
+    <col min="25" max="25" width="4.140625" customWidth="1"/>
+    <col min="26" max="27" width="5.5703125" customWidth="1"/>
+    <col min="28" max="28" width="1.7109375" customWidth="1"/>
+    <col min="29" max="29" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -2582,8 +2606,11 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
-    </row>
-    <row r="5" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+    </row>
+    <row r="5" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
       <c r="D5" s="13" t="s">
         <v>0</v>
@@ -2612,19 +2639,22 @@
       <c r="P5" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="Q5" s="2"/>
+      <c r="Q5" s="13"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
-      <c r="U5" s="31" t="s">
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="1"/>
-    </row>
-    <row r="6" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="1"/>
+    </row>
+    <row r="6" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
       <c r="D6" s="13"/>
       <c r="E6" s="12"/>
@@ -2643,19 +2673,22 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
-    </row>
-    <row r="7" spans="3:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+    </row>
+    <row r="7" spans="3:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C7" s="1"/>
       <c r="D7" s="21" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="33">
+      <c r="F7" s="31">
         <v>265598</v>
       </c>
       <c r="G7" s="23" t="s">
@@ -2688,33 +2721,42 @@
       <c r="P7" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="30" t="s">
+      <c r="Q7" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="R7" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="S7" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="T7" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="U7" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="R7" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="S7" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="T7" s="2"/>
-      <c r="U7" s="12" t="s">
+      <c r="V7" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="W7" s="2"/>
+      <c r="X7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="V7" s="14" t="s">
+      <c r="Y7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-    </row>
-    <row r="8" spans="3:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+    </row>
+    <row r="8" spans="3:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="35" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="12"/>
-      <c r="F8" s="33">
+      <c r="F8" s="31">
         <v>4815747</v>
       </c>
       <c r="G8" s="23" t="s">
@@ -2747,77 +2789,92 @@
       <c r="P8" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="Q8" s="30" t="s">
+      <c r="Q8" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="R8" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="S8" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="T8" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="R8" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="S8" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
+      <c r="V8" s="30" t="s">
+        <v>42</v>
+      </c>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
-    </row>
-    <row r="9" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+    </row>
+    <row r="9" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="35" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="12"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
-    </row>
-    <row r="10" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+    </row>
+    <row r="10" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="35" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
-    </row>
-    <row r="11" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+    </row>
+    <row r="11" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -2841,8 +2898,11 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
-    </row>
-    <row r="12" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+    </row>
+    <row r="12" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -2866,14 +2926,17 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
-    </row>
-    <row r="13" spans="3:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+    </row>
+    <row r="13" spans="3:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C13" s="1"/>
       <c r="D13" s="21" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="12"/>
-      <c r="F13" s="33">
+      <c r="F13" s="31">
         <v>265598</v>
       </c>
       <c r="G13" s="23" t="s">
@@ -2888,7 +2951,7 @@
       <c r="J13" s="23">
         <v>145.66999999999999</v>
       </c>
-      <c r="K13" s="34" t="s">
+      <c r="K13" s="32" t="s">
         <v>39</v>
       </c>
       <c r="L13" s="25">
@@ -2906,29 +2969,38 @@
       <c r="P13" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="Q13" s="30" t="s">
+      <c r="Q13" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="R13" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="S13" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="T13" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="U13" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="R13" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="S13" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
+      <c r="V13" s="30" t="s">
+        <v>42</v>
+      </c>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
-    </row>
-    <row r="14" spans="3:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+    </row>
+    <row r="14" spans="3:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C14" s="1"/>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="37" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="12"/>
-      <c r="F14" s="33">
+      <c r="F14" s="31">
         <v>4815747</v>
       </c>
       <c r="G14" s="23" t="s">
@@ -2943,7 +3015,7 @@
       <c r="J14" s="23">
         <v>890.16</v>
       </c>
-      <c r="K14" s="34" t="s">
+      <c r="K14" s="32" t="s">
         <v>39</v>
       </c>
       <c r="L14" s="25">
@@ -2961,77 +3033,92 @@
       <c r="P14" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="Q14" s="30" t="s">
+      <c r="Q14" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="R14" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="S14" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="T14" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="U14" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="R14" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="S14" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
+      <c r="V14" s="30" t="s">
+        <v>42</v>
+      </c>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
-    </row>
-    <row r="15" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+    </row>
+    <row r="15" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="37" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="12"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
-    </row>
-    <row r="16" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+    </row>
+    <row r="16" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="37" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="12"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -3055,8 +3142,11 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -3080,10 +3170,13 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="U5:X5"/>
+    <mergeCell ref="X5:AA5"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SignalAdvisor/UI.xlsx
+++ b/SignalAdvisor/UI.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\Rollover\SignalAdvisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440576B7-A4D9-4FDE-8947-A519A6DBE94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56FC420-2FA3-4C87-9EF3-DF7269AF4E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{6968191E-5FEC-4565-86AB-E4455F586025}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{6968191E-5FEC-4565-86AB-E4455F586025}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1 (3)" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1 (4)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="46">
   <si>
     <t>Open positions:</t>
   </si>
@@ -167,6 +168,15 @@
   </si>
   <si>
     <t>Exp. Value</t>
+  </si>
+  <si>
+    <t>Start Monitoring</t>
+  </si>
+  <si>
+    <t>Disable Alert</t>
+  </si>
+  <si>
+    <t>MACD Up</t>
   </si>
 </sst>
 </file>
@@ -176,7 +186,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,8 +282,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -332,6 +350,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -362,7 +386,7 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -424,15 +448,19 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1493,12 +1521,12 @@
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="33" t="s">
+      <c r="L5" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
       <c r="P5" s="1"/>
       <c r="R5" s="7"/>
       <c r="S5" s="15" t="s">
@@ -1522,12 +1550,12 @@
       </c>
       <c r="Z5" s="8"/>
       <c r="AA5" s="8"/>
-      <c r="AB5" s="34" t="s">
+      <c r="AB5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="AC5" s="34"/>
-      <c r="AD5" s="34"/>
-      <c r="AE5" s="34"/>
+      <c r="AC5" s="37"/>
+      <c r="AD5" s="37"/>
+      <c r="AE5" s="37"/>
       <c r="AF5" s="17"/>
     </row>
     <row r="6" spans="2:32" x14ac:dyDescent="0.25">
@@ -2065,12 +2093,12 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
-      <c r="U5" s="33" t="s">
+      <c r="U5" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.25">
@@ -2549,8 +2577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8050E3-70C6-45F6-B5FF-53FBDA934C54}">
   <dimension ref="C4:AB18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2646,12 +2674,12 @@
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
-      <c r="X5" s="33" t="s">
+      <c r="X5" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
       <c r="AB5" s="1"/>
     </row>
     <row r="6" spans="3:28" x14ac:dyDescent="0.25">
@@ -2752,7 +2780,7 @@
     </row>
     <row r="8" spans="3:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="33" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="12"/>
@@ -2816,27 +2844,27 @@
     </row>
     <row r="9" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="33" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="12"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
@@ -2846,27 +2874,27 @@
     </row>
     <row r="10" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="33" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
@@ -2996,7 +3024,7 @@
     </row>
     <row r="14" spans="3:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C14" s="1"/>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="35" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="12"/>
@@ -3060,27 +3088,27 @@
     </row>
     <row r="15" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="35" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="12"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="36"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="34"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
@@ -3090,27 +3118,27 @@
     </row>
     <row r="16" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="35" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="12"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
@@ -3181,4 +3209,285 @@
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{016DAD52-1F34-4661-930D-6F8745F75B52}">
+  <dimension ref="B3:M18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.140625" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" customWidth="1"/>
+    <col min="3" max="3" width="3.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+    </row>
+    <row r="4" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="39"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="1"/>
+      <c r="D5" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="39"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B7" s="39"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="31">
+        <v>265598</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="23">
+        <v>145.66999999999999</v>
+      </c>
+      <c r="K7" s="25">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="39"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="31">
+        <v>4815747</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="23">
+        <v>890.16</v>
+      </c>
+      <c r="K8" s="25">
+        <v>0.74652777777777801</v>
+      </c>
+      <c r="L8" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="39"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="39"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="39"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="39"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="39"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="39"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="39"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="39"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SignalAdvisor/UI.xlsx
+++ b/SignalAdvisor/UI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\Rollover\SignalAdvisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56FC420-2FA3-4C87-9EF3-DF7269AF4E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8E81BE-3AEB-41B8-95F2-9999EC116E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{6968191E-5FEC-4565-86AB-E4455F586025}"/>
+    <workbookView xWindow="-54135" yWindow="8415" windowWidth="25470" windowHeight="15420" activeTab="3" xr2:uid="{6968191E-5FEC-4565-86AB-E4455F586025}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="54">
   <si>
     <t>Open positions:</t>
   </si>
@@ -177,6 +177,30 @@
   </si>
   <si>
     <t>MACD Up</t>
+  </si>
+  <si>
+    <t>ConId</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Exchange</t>
+  </si>
+  <si>
+    <t>Ask</t>
+  </si>
+  <si>
+    <t>Bid</t>
+  </si>
+  <si>
+    <t>Last Signal</t>
+  </si>
+  <si>
+    <t>Last Signal Time</t>
   </si>
 </sst>
 </file>
@@ -386,7 +410,7 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -461,6 +485,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -3213,10 +3239,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{016DAD52-1F34-4661-930D-6F8745F75B52}">
-  <dimension ref="B3:M18"/>
+  <dimension ref="B3:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3227,13 +3253,13 @@
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="4.140625" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="10" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" customWidth="1"/>
-    <col min="13" max="13" width="4" customWidth="1"/>
+    <col min="7" max="11" width="11.5703125" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
+    <col min="14" max="14" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C3" s="39"/>
       <c r="E3" s="39"/>
       <c r="F3" s="39"/>
@@ -3243,8 +3269,10 @@
       <c r="J3" s="39"/>
       <c r="K3" s="39"/>
       <c r="L3" s="39"/>
-    </row>
-    <row r="4" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="40"/>
+      <c r="N3" s="39"/>
+    </row>
+    <row r="4" spans="2:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="39"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -3257,8 +3285,9 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
       <c r="D5" s="21" t="s">
         <v>43</v>
@@ -3270,12 +3299,13 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="38" t="s">
+      <c r="L5" s="1"/>
+      <c r="M5" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="39"/>
       <c r="C6" s="1"/>
       <c r="D6" s="13"/>
@@ -3286,40 +3316,44 @@
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L6" s="12"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B7" s="39"/>
       <c r="C7" s="1"/>
       <c r="D7" s="33" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="31">
-        <v>265598</v>
+      <c r="F7" s="31" t="s">
+        <v>46</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="23">
-        <v>145.66999999999999</v>
-      </c>
-      <c r="K7" s="25">
-        <v>0.70486111111111116</v>
-      </c>
-      <c r="L7" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B8" s="39"/>
       <c r="C8" s="1"/>
       <c r="D8" s="33" t="s">
@@ -3327,10 +3361,10 @@
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="31">
-        <v>4815747</v>
+        <v>265598</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H8" s="23" t="s">
         <v>32</v>
@@ -3339,31 +3373,51 @@
         <v>33</v>
       </c>
       <c r="J8" s="23">
-        <v>890.16</v>
-      </c>
-      <c r="K8" s="25">
-        <v>0.74652777777777801</v>
-      </c>
-      <c r="L8" s="26" t="s">
+        <v>145.66999999999999</v>
+      </c>
+      <c r="K8" s="23">
+        <v>145.66999999999999</v>
+      </c>
+      <c r="L8" s="41">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="M8" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="39"/>
       <c r="C9" s="1"/>
       <c r="D9" s="33"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F9" s="31">
+        <v>4815747</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="23">
+        <v>890.16</v>
+      </c>
+      <c r="K9" s="23">
+        <v>890.16</v>
+      </c>
+      <c r="L9" s="41">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="M9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="39"/>
       <c r="C10" s="1"/>
       <c r="D10" s="33"/>
@@ -3375,9 +3429,10 @@
       <c r="J10" s="33"/>
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M10" s="33"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="39"/>
       <c r="C11" s="1"/>
       <c r="D11" s="33"/>
@@ -3389,9 +3444,10 @@
       <c r="J11" s="33"/>
       <c r="K11" s="33"/>
       <c r="L11" s="33"/>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M11" s="33"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="39"/>
       <c r="C12" s="1"/>
       <c r="D12" s="33"/>
@@ -3403,9 +3459,10 @@
       <c r="J12" s="33"/>
       <c r="K12" s="33"/>
       <c r="L12" s="33"/>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M12" s="33"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="39"/>
       <c r="C13" s="1"/>
       <c r="D13" s="33"/>
@@ -3417,9 +3474,10 @@
       <c r="J13" s="33"/>
       <c r="K13" s="33"/>
       <c r="L13" s="33"/>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M13" s="33"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="39"/>
       <c r="C14" s="1"/>
       <c r="D14" s="33"/>
@@ -3431,9 +3489,10 @@
       <c r="J14" s="33"/>
       <c r="K14" s="33"/>
       <c r="L14" s="33"/>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M14" s="33"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="39"/>
       <c r="C15" s="1"/>
       <c r="D15" s="33"/>
@@ -3445,9 +3504,10 @@
       <c r="J15" s="33"/>
       <c r="K15" s="33"/>
       <c r="L15" s="33"/>
-      <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M15" s="33"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="39"/>
       <c r="C16" s="1"/>
       <c r="D16" s="33"/>
@@ -3459,9 +3519,10 @@
       <c r="J16" s="33"/>
       <c r="K16" s="33"/>
       <c r="L16" s="33"/>
-      <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="M16" s="33"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -3473,8 +3534,9 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -3486,6 +3548,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
